--- a/CUT/Code Inspection Log/Design_Review_Checklist_V0.2.xlsx
+++ b/CUT/Code Inspection Log/Design_Review_Checklist_V0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poramya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCHANDRI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA92D7AF-F096-4557-8FC9-1BD5B825804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40C4F8-7F83-4B51-8E1C-A42BB17FB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>Design Review Checklist</t>
   </si>
@@ -275,44 +275,50 @@
     <t>Scope</t>
   </si>
   <si>
-    <t>Padmoja Pradhan</t>
-  </si>
-  <si>
     <t>Kishwar Sayed</t>
   </si>
   <si>
     <t>Correction of Er diagram and Flowchart</t>
   </si>
   <si>
-    <t>Mahak Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correction of Macros </t>
-  </si>
-  <si>
-    <t>Neetu</t>
-  </si>
-  <si>
-    <t>Correction in Note Validation</t>
-  </si>
-  <si>
-    <t>Harini Bhavirisetty</t>
-  </si>
-  <si>
     <t>Validation correction</t>
-  </si>
-  <si>
-    <t>Dhaval Tandel</t>
   </si>
   <si>
     <t>Exception Hnadling</t>
   </si>
   <si>
-    <t>Auction system</t>
+    <t xml:space="preserve">Copyright @ Capgemini Technologies India Pvt. Ltd 2022.  All rights reserved.
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Copyright @ Capgemini Technologies India Pvt. Ltd 2022.  All rights reserved.
-</t>
+    <t>Online Auction Sytem</t>
+  </si>
+  <si>
+    <t>Jayasree Chinta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correction of Macros</t>
+  </si>
+  <si>
+    <t>Ramya Potnuru</t>
+  </si>
+  <si>
+    <t>Rohini Gokake</t>
+  </si>
+  <si>
+    <t>Mounika Palla</t>
+  </si>
+  <si>
+    <t>Chandrikakumari Sasapu</t>
+  </si>
+  <si>
+    <t>Correction in Individual Modules buyer,Seller,Admin</t>
+  </si>
+  <si>
+    <t>File handling and file to linked list correction</t>
+  </si>
+  <si>
+    <t>Correction in Flow of the Application</t>
   </si>
 </sst>
 </file>
@@ -665,9 +671,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -677,9 +681,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -691,12 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1011,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K13"/>
+      <selection activeCell="G5" sqref="G5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25"/>
@@ -1144,7 +1150,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="26" t="s">
         <v>5</v>
@@ -1154,7 +1160,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -1386,18 +1392,18 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="38" t="s">
-        <v>73</v>
+      <c r="B13" s="30" t="s">
+        <v>65</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="17" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -29052,6 +29058,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B15:K15"/>
@@ -29060,22 +29082,6 @@
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:M9">
     <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
@@ -29095,7 +29101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32508,7 +32514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32523,7 +32531,7 @@
     <row r="1" spans="4:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="27"/>
@@ -32540,19 +32548,19 @@
       <c r="D4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="38" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="38" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="28"/>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="38" t="s">
         <v>60</v>
       </c>
       <c r="L4" s="27"/>
@@ -32560,135 +32568,151 @@
     </row>
     <row r="5" spans="4:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
-      <c r="E5" s="37">
-        <v>44869</v>
+      <c r="E5" s="34">
+        <v>44898</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="4:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="23">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="37">
-        <v>44873</v>
+      <c r="E6" s="34">
+        <v>44900</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
-        <v>64</v>
+      <c r="G6" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="33" t="s">
-        <v>62</v>
+      <c r="I6" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="28"/>
-      <c r="K6" s="33" t="s">
-        <v>65</v>
+      <c r="K6" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="4:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="23">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
-      <c r="E7" s="37">
-        <v>44876</v>
+      <c r="E7" s="34">
+        <v>44902</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="33" t="s">
-        <v>66</v>
+      <c r="G7" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="33" t="s">
-        <v>62</v>
+      <c r="I7" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="K7" s="33" t="s">
-        <v>67</v>
+      <c r="K7" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="4:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="23">
-        <v>5</v>
+        <v>1.3</v>
       </c>
-      <c r="E8" s="37">
-        <v>44879</v>
+      <c r="E8" s="34">
+        <v>44907</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="33" t="s">
-        <v>68</v>
+      <c r="G8" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="33" t="s">
-        <v>62</v>
+      <c r="I8" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="4:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="23">
-        <v>5.0999999999999996</v>
+        <v>1.4</v>
       </c>
-      <c r="E9" s="37">
-        <v>44881</v>
+      <c r="E9" s="34">
+        <v>44915</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="33" t="s">
-        <v>70</v>
+      <c r="G9" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="33" t="s">
-        <v>62</v>
+      <c r="I9" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="28"/>
     </row>
     <row r="10" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="23"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="34">
+        <v>44917</v>
+      </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="4:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="23"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="34">
+        <v>44919</v>
+      </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
     </row>
@@ -33683,6 +33707,23 @@
     <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
@@ -33699,31 +33740,9 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D11">
+  <conditionalFormatting sqref="D10:D11">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33732,7 +33751,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:M6">
+  <conditionalFormatting sqref="D5:M5 E6:M6 D6:D9">
     <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -33762,7 +33781,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:J9">
+  <conditionalFormatting sqref="I9:J11">
     <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
